--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Level</t>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>Specifies that the stroke etiology falls into a rarer category not covered by the main classifications, such as vasculitis or hypercoagulable states.</t>
-  </si>
-  <si>
-    <t>lacunar</t>
-  </si>
-  <si>
-    <t>Stroke Etiology Lacunar</t>
-  </si>
-  <si>
-    <t>Specifies that the stroke is attributed to small vessel disease, often manifesting as a lacunar infarct.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +476,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,20 +524,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/CodeSystem/stroke-etiology-cs</t>
+    <t>http://tecnomod-um.org/CodeSystem/stroke-etiology-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
